--- a/dup5.xlsx
+++ b/dup5.xlsx
@@ -16,34 +16,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14178" uniqueCount="3265">
   <si>
-    <t>보수코드</t>
-  </si>
-  <si>
-    <t>일자</t>
-  </si>
-  <si>
-    <t>고장부위</t>
-  </si>
-  <si>
-    <t>매니저</t>
-  </si>
-  <si>
-    <t>내용</t>
-  </si>
-  <si>
-    <t>운행정지</t>
-  </si>
-  <si>
-    <t>갇힘</t>
-  </si>
-  <si>
-    <t>도착시 승객갇힘</t>
-  </si>
-  <si>
-    <t>유상수리</t>
-  </si>
-  <si>
-    <t>NOF</t>
+    <t>호기코드11</t>
+  </si>
+  <si>
+    <t>(3) 일자</t>
+  </si>
+  <si>
+    <t>(3) 고장부위</t>
+  </si>
+  <si>
+    <t>(3) 매니저</t>
+  </si>
+  <si>
+    <t>(3) 내용</t>
+  </si>
+  <si>
+    <t>(3) 운행정지</t>
+  </si>
+  <si>
+    <t>(3) 갇힘</t>
+  </si>
+  <si>
+    <t>(3) 도착시 승객갇힘</t>
+  </si>
+  <si>
+    <t>(3) 유상수리</t>
+  </si>
+  <si>
+    <t>(3) NOF</t>
   </si>
   <si>
     <t>00040450001</t>
@@ -7381,283 +7381,283 @@
     <t xml:space="preserve"> 20/06/01 </t>
   </si>
   <si>
-    <t xml:space="preserve"> 중앙처리장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 도어닫힘장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 도어가이드슈/실/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 카부착층인식장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제어반-기타</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 이상주행방지스위치</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 드라이브-기타</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 안전 회로 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 도어판넬  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 도어콘트롤 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 엔코더   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제동장치  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 가이드롤러/슈 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 층등록기판 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 회로기판  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 에러 증상 없음</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 카 도어 - 기타</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 행거판   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 브로어팬  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 도어스위치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 도어작동장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 콘텍터   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 홀콜    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 승강로잠금장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 셀렉터   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 자동구출장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 카-기타  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> C.O.P </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 쉬브    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 승강로-기타</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 승객안전장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 안전스위치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 통신장치 / CC</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 리타이어링캠/도어</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 커플링   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제어반내부배선/결</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 권상기-기타</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 전원공급장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Airshoote</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 음성안내방송 / </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STACK </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 홀도착&amp;층표시장치</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 인버터회로기판 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 군관리   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 소음    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 카인테리어/핸드레</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 환기및통풍장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조속기로프/텐션쉬</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 제어반   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 콘넥터/단자대/플</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 승강로부착층인식장</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 승강로배선&amp;덮개/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 카부착안전회로 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스탭/팔레트 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 카상부점검장치/리</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 회로보호장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 컨트롤러  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 빌딩전원/비상전원</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 에스컬레이터-기타</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 브레이크  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스위치   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스위치/마이크로스</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 핸드레일  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 난간/스커트/데크</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> PLC   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조명장치/비상등/</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 레일    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 조명장치  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 기타장치-기타</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 안전장치  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 하중장치  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 저항    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 기계실하중감지장치</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 과속방지장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 감시반   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 발란스보정 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 보호회로  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 안전 장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 도르래   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 목적층선택유니트 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 인터컴   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 방화도어  </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 모션컨트롤 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 균형추   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 변압기   </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 도어브레이크</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 배선    </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 키스위치/정지스위</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 비상전원장치 </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> BMU - 기타</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 스틸테이프/마그넷</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 카부착최종감속장치</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 발전기   </t>
+    <t xml:space="preserve">중앙처리장치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">도어닫힘장치 </t>
+  </si>
+  <si>
+    <t>도어가이드슈/실/실</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카부착층인식장치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어반-기타 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">이상주행방지스위치 </t>
+  </si>
+  <si>
+    <t>드라이브-기타</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안전 회로  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">도어판넬   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">도어콘트롤  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">엔코더    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">제동장치   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">가이드롤러/슈 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">층등록기판  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">회로기판   </t>
+  </si>
+  <si>
+    <t>에러 증상 없음</t>
+  </si>
+  <si>
+    <t>카 도어 - 기타</t>
+  </si>
+  <si>
+    <t xml:space="preserve">행거판    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">브로어팬   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">도어스위치  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">도어작동장치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">콘텍터    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">홀콜     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">승강로잠금장치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">셀렉터    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">자동구출장치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">카-기타   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">C.O.P  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">쉬브     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">승강로-기타 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">승객안전장치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안전스위치  </t>
+  </si>
+  <si>
+    <t>통신장치 / CCT</t>
+  </si>
+  <si>
+    <t>리타이어링캠/도어픽</t>
+  </si>
+  <si>
+    <t xml:space="preserve">커플링    </t>
+  </si>
+  <si>
+    <t>제어반내부배선/결선</t>
+  </si>
+  <si>
+    <t xml:space="preserve">권상기-기타 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">전원공급장치 </t>
+  </si>
+  <si>
+    <t>Airshooter</t>
+  </si>
+  <si>
+    <t>음성안내방송 / B</t>
+  </si>
+  <si>
+    <t xml:space="preserve">STACK  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">홀도착&amp;층표시장치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">인버터회로기판 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">군관리    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">소음     </t>
+  </si>
+  <si>
+    <t>카인테리어/핸드레일</t>
+  </si>
+  <si>
+    <t xml:space="preserve">환기및통풍장치 </t>
+  </si>
+  <si>
+    <t>조속기로프/텐션쉬브</t>
+  </si>
+  <si>
+    <t xml:space="preserve">제어반    </t>
+  </si>
+  <si>
+    <t>콘넥터/단자대/플러</t>
+  </si>
+  <si>
+    <t>승강로부착층인식장치</t>
+  </si>
+  <si>
+    <t>승강로배선&amp;덮개/전</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카부착안전회로 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">스탭/팔레트 </t>
+  </si>
+  <si>
+    <t>카상부점검장치/리모</t>
+  </si>
+  <si>
+    <t xml:space="preserve">회로보호장치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">컨트롤러   </t>
+  </si>
+  <si>
+    <t>빌딩전원/비상전원공</t>
+  </si>
+  <si>
+    <t>에스컬레이터-기타</t>
+  </si>
+  <si>
+    <t xml:space="preserve">브레이크   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">스위치    </t>
+  </si>
+  <si>
+    <t>스위치/마이크로스위</t>
+  </si>
+  <si>
+    <t xml:space="preserve">핸드레일   </t>
+  </si>
+  <si>
+    <t>난간/스커트/데크/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLC    </t>
+  </si>
+  <si>
+    <t>조명장치/비상등/환</t>
+  </si>
+  <si>
+    <t xml:space="preserve">레일     </t>
+  </si>
+  <si>
+    <t xml:space="preserve">조명장치   </t>
+  </si>
+  <si>
+    <t>기타장치-기타</t>
+  </si>
+  <si>
+    <t xml:space="preserve">안전장치   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">하중장치   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">저항     </t>
+  </si>
+  <si>
+    <t>기계실하중감지장치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">과속방지장치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">감시반    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">발란스보정  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">보호회로   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">안전 장치  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">도르래    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">목적층선택유니트 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">인터컴    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">방화도어   </t>
+  </si>
+  <si>
+    <t xml:space="preserve">모션컨트롤  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">균형추    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">변압기    </t>
+  </si>
+  <si>
+    <t xml:space="preserve">도어브레이크 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">배선     </t>
+  </si>
+  <si>
+    <t>키스위치/정지스위치</t>
+  </si>
+  <si>
+    <t xml:space="preserve">비상전원장치 </t>
+  </si>
+  <si>
+    <t>BMU - 기타</t>
+  </si>
+  <si>
+    <t>스틸테이프/마그넷테</t>
+  </si>
+  <si>
+    <t xml:space="preserve">카부착최종감속장치 </t>
+  </si>
+  <si>
+    <t xml:space="preserve">발전기    </t>
   </si>
   <si>
     <t>김재관</t>
